--- a/data/trans_dic/P62-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P62-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,6%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>39,09; 57,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>29,41; 45,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>16,31; 31,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>18,06; 31,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>22,75; 37,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>17,46; 27,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>29,18; 40,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>28,47; 39,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>18,49; 27,1</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,3%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>48,05; 61,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>34,59; 46,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>39,99; 50,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>45,49; 60,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>17,77; 26,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>18,59; 27,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>18,64; 26,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>31,61; 40,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>30,45; 38,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,39; 34,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>29,46; 36,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>39,1; 47,33</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,25%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>44,17; 61,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>38,32; 54,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>41,34; 55,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>48,3; 64,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>22,25; 33,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>24,12; 35,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>26,4; 39,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>32,22; 42,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>32,76; 42,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>31,9; 41,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>35,1; 44,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>41,31; 49,58</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>43,71; 60,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>40,36; 50,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>32,37; 44,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>45,77; 65,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>22,46; 33,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>31,82; 41,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>22,49; 33,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>32,51; 42,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>32,14; 41,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>36,93; 43,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>28,27; 36,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>39,5; 49,55</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,61%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>42,08; 63,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>30,4; 47,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>42,25; 59,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>37,66; 59,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>16,09; 29,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>22,0; 36,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>27,9; 43,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>34,64; 47,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>27,18; 39,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>27,51; 38,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>36,75; 48,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>37,73; 48,94</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,1%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>46,87; 65,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>39,59; 55,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>39,47; 55,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>51,5; 67,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>18,51; 31,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>21,67; 33,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>17,18; 30,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>30,44; 40,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>30,59; 41,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>30,71; 40,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>28,98; 39,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>41,69; 51,29</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,39%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,08%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>45,69; 57,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>36,32; 47,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>46,42; 58,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>50,18; 64,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>22,22; 30,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>25,81; 33,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>33,84; 43,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>42,38; 81,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>32,35; 39,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>31,78; 38,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>40,48; 48,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>48,6; 75,73</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,22%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>55,61; 67,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>41,85; 52,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>43,53; 53,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>60,23; 72,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>19,81; 27,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>23,78; 31,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>27,41; 35,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>35,49; 43,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>32,98; 39,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>32,56; 39,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>35,29; 42,11</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>46,77; 53,5</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,01%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>51,86; 57,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,74; 46,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>43,94; 48,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>53,29; 59,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>22,86; 26,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,22; 30,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>28,2; 32,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,06; 50,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,19; 37,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,19; 37,12</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>35,92; 38,72</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>44,77; 52,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P62-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>21,27%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,78; 53,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,31; 31,81</t>
+          <t>14,1; 29,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,93; 45,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 27,08</t>
+          <t>16,7; 26,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,68; 46,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 27,1</t>
+          <t>17,02; 25,85</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,15%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>42,12%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,49; 60,6</t>
+          <t>42,25; 57,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,61; 40,81</t>
+          <t>31,47; 40,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,1; 47,33</t>
+          <t>37,78; 46,27</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,75%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>44,61%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,3; 64,04</t>
+          <t>46,56; 62,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,22; 42,01</t>
+          <t>31,8; 41,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>41,31; 49,58</t>
+          <t>40,63; 48,9</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>54,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>44,52%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,36; 50,35</t>
+          <t>37,96; 51,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,77; 65,84</t>
+          <t>42,69; 65,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,82; 41,1</t>
+          <t>31,05; 42,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,51; 42,71</t>
+          <t>32,71; 42,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,93; 43,99</t>
+          <t>35,97; 44,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 49,55</t>
+          <t>39,04; 49,32</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>44,29%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,66; 59,15</t>
+          <t>38,34; 59,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,64; 47,84</t>
+          <t>35,56; 48,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,73; 48,94</t>
+          <t>38,42; 49,48</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,5%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>45,83%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,5; 67,43</t>
+          <t>50,2; 66,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,44; 40,92</t>
+          <t>30,36; 40,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>41,69; 51,29</t>
+          <t>41,46; 51,08</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,08%</t>
+          <t>61,32%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,18; 64,41</t>
+          <t>47,17; 62,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>42,38; 81,13</t>
+          <t>41,88; 88,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,6; 75,73</t>
+          <t>47,32; 83,2</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>51,05%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60,23; 72,52</t>
+          <t>61,08; 73,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,49; 43,41</t>
+          <t>36,15; 43,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>46,77; 53,5</t>
+          <t>47,77; 54,28</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>47,68%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>53,29; 59,16</t>
+          <t>50,83; 57,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,06; 50,73</t>
+          <t>36,81; 59,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>44,77; 52,66</t>
+          <t>44,09; 58,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P62-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,09; 57,39</t>
+          <t>40,01; 59,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,78; 53,36</t>
+          <t>37,8; 53,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,41; 45,58</t>
+          <t>30,43; 45,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 29,04</t>
+          <t>13,5; 28,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,06; 31,99</t>
+          <t>17,92; 32,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 45,08</t>
+          <t>28,94; 44,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,75; 37,27</t>
+          <t>22,49; 36,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 26,49</t>
+          <t>16,73; 27,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,18; 40,74</t>
+          <t>29,1; 41,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,68; 46,57</t>
+          <t>35,37; 46,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,47; 39,27</t>
+          <t>28,59; 39,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 25,85</t>
+          <t>17,16; 26,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,05; 61,39</t>
+          <t>48,41; 61,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,59; 46,24</t>
+          <t>34,6; 46,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,99; 50,74</t>
+          <t>39,94; 51,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,25; 57,95</t>
+          <t>41,63; 58,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 26,11</t>
+          <t>17,24; 25,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,59; 27,62</t>
+          <t>18,33; 27,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 26,95</t>
+          <t>18,2; 27,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,47; 40,5</t>
+          <t>31,69; 40,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,45; 38,64</t>
+          <t>30,7; 38,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,39; 34,68</t>
+          <t>26,74; 34,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,46; 36,6</t>
+          <t>29,2; 36,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,78; 46,27</t>
+          <t>38,01; 46,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,17; 61,25</t>
+          <t>44,88; 61,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,32; 54,46</t>
+          <t>37,55; 53,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,34; 55,52</t>
+          <t>41,52; 55,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,56; 62,66</t>
+          <t>46,56; 62,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 33,84</t>
+          <t>21,95; 33,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,12; 35,95</t>
+          <t>24,08; 35,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,4; 39,27</t>
+          <t>26,63; 38,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,8; 41,63</t>
+          <t>31,83; 41,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,76; 42,24</t>
+          <t>32,34; 41,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,9; 41,47</t>
+          <t>31,55; 40,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,1; 44,57</t>
+          <t>34,49; 43,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,63; 48,9</t>
+          <t>40,14; 49,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,71; 60,48</t>
+          <t>44,0; 60,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,96; 51,8</t>
+          <t>37,92; 50,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,37; 44,38</t>
+          <t>32,06; 44,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,69; 65,16</t>
+          <t>42,71; 64,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,46; 33,47</t>
+          <t>22,45; 33,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,05; 42,18</t>
+          <t>30,88; 42,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,49; 33,72</t>
+          <t>22,06; 32,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,71; 42,9</t>
+          <t>32,22; 42,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 41,44</t>
+          <t>31,85; 41,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,97; 44,48</t>
+          <t>35,23; 44,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 36,26</t>
+          <t>28,14; 36,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,04; 49,32</t>
+          <t>39,26; 49,34</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,08; 63,15</t>
+          <t>42,18; 62,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,4; 47,63</t>
+          <t>29,93; 47,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,25; 59,48</t>
+          <t>42,61; 60,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,34; 59,55</t>
+          <t>37,45; 59,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 29,16</t>
+          <t>15,76; 29,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,0; 36,67</t>
+          <t>22,04; 36,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,9; 43,36</t>
+          <t>27,68; 42,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,56; 48,46</t>
+          <t>34,8; 48,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,18; 39,39</t>
+          <t>26,87; 38,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,51; 38,74</t>
+          <t>27,19; 38,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,75; 48,19</t>
+          <t>37,32; 48,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,42; 49,48</t>
+          <t>38,64; 49,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,87; 65,48</t>
+          <t>46,4; 64,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,59; 55,82</t>
+          <t>40,31; 56,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,47; 55,4</t>
+          <t>39,3; 54,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,2; 66,46</t>
+          <t>51,67; 67,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,51; 31,37</t>
+          <t>18,35; 30,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,67; 33,46</t>
+          <t>21,08; 32,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,18; 30,28</t>
+          <t>16,94; 30,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,36; 40,8</t>
+          <t>30,0; 40,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,59; 41,37</t>
+          <t>30,72; 41,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,71; 40,26</t>
+          <t>30,97; 40,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,98; 39,13</t>
+          <t>28,24; 38,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>41,46; 51,08</t>
+          <t>41,3; 50,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,69; 57,8</t>
+          <t>44,87; 57,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,32; 47,04</t>
+          <t>36,81; 47,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,42; 58,71</t>
+          <t>46,53; 58,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>47,17; 62,07</t>
+          <t>47,36; 62,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,22; 30,2</t>
+          <t>22,07; 30,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,81; 33,83</t>
+          <t>25,56; 34,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,84; 43,98</t>
+          <t>33,24; 43,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,88; 88,7</t>
+          <t>41,51; 86,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,35; 39,27</t>
+          <t>32,0; 39,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,78; 38,51</t>
+          <t>31,79; 38,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,48; 48,06</t>
+          <t>40,8; 48,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,32; 83,2</t>
+          <t>47,26; 83,28</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>55,61; 67,37</t>
+          <t>55,72; 67,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,85; 52,43</t>
+          <t>42,29; 52,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,53; 53,07</t>
+          <t>43,09; 52,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,08; 73,19</t>
+          <t>61,03; 73,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,81; 27,34</t>
+          <t>20,56; 28,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,78; 31,73</t>
+          <t>23,87; 31,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,41; 35,45</t>
+          <t>26,93; 35,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,15; 43,93</t>
+          <t>36,13; 43,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,98; 39,58</t>
+          <t>32,86; 40,12</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>32,56; 39,27</t>
+          <t>32,87; 39,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35,29; 42,11</t>
+          <t>35,62; 42,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>47,77; 54,28</t>
+          <t>48,02; 54,27</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>51,86; 57,12</t>
+          <t>51,84; 57,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>41,74; 46,27</t>
+          <t>41,5; 46,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>43,94; 48,4</t>
+          <t>44,11; 48,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50,83; 57,0</t>
+          <t>51,19; 57,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,49</t>
+          <t>22,8; 26,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,22; 30,93</t>
+          <t>27,18; 30,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,2; 32,06</t>
+          <t>28,31; 32,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,81; 59,16</t>
+          <t>36,79; 62,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,31</t>
+          <t>34,06; 37,23</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,12</t>
+          <t>34,16; 37,13</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>35,92; 38,72</t>
+          <t>35,94; 38,83</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>44,09; 58,57</t>
+          <t>44,09; 59,01</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que percibe algun tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52785</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76083</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>59244</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24245</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36586</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>68813</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>54975</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31304</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>89371</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>144896</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>114219</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55549</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43051; 63499</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>63108; 89378</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47708; 72063</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15647; 33523</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26668; 48307</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>54408; 82896</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41199; 67427</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24316; 39458</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>74620; 105717</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>125572; 164704</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>97199; 134428</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44828; 67999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>123693</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>132346</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148570</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>134827</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>80182</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89844</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>92618</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>122029</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>203875</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>222190</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>241188</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>256856</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>107758; 137431</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>113923; 151718</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>130795; 168175</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>111975; 156662</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>63665; 94230</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72142; 109427</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>74296; 111143</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>108028; 138353</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>181732; 225319</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>193309; 246695</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>214838; 266891</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>231823; 284066</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75765</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>82244</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>89941</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>91782</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>66464</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75561</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>79895</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83726</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>142228</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>157805</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>169837</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>175507</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>64236; 88629</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67554; 95662</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>77222; 102837</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>77465; 104186</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52874; 81443</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>61795; 91979</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65438; 95011</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72281; 94192</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>124198; 160822</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>137719; 176806</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>148919; 189453</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>157953; 194040</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>69987</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>102381</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>96554</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>79018</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>64844</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>101877</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>81420</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80696</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>134830</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>204258</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>177974</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59024; 81084</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>86605; 116449</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>80791; 111918</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>61381; 92650</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>52845; 78425</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>86670; 118936</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>66022; 98312</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69271; 91870</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>117696; 153296</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>179319; 226076</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>155163; 203332</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>140844; 177003</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45265</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49954</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66718</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31396</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>34946</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>47020</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57197</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41657</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>80210</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>96973</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>123915</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73053</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36566; 54353</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>38686; 61939</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>55517; 79464</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24156; 38446</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24777; 46247</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35894; 59930</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44881; 69516</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34949; 48668</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>65537; 94996</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>79439; 112245</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>109142; 140400</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>63730; 81676</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>63214</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>74321</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>73938</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>79936</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>47527</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>60108</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>44294</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>59936</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>110741</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>134429</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>118232</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>139872</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>52771; 73431</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>62352; 86742</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>61165; 85264</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>69533; 90975</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35837; 59969</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>47376; 73930</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>32675; 58077</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>51200; 69354</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>94936; 128685</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>117488; 154171</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>98416; 135595</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>126062; 153461</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>142828</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>160207</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>153678</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>158673</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>118927</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>150142</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>152699</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>347820</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>261755</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>310349</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>306376</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>506493</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>124864; 159185</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>140685; 180881</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>136450; 171656</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>136770; 179457</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>100758; 138327</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>129525; 172787</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>131952; 173874</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>223003; 466391</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>235162; 286948</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>282660; 340724</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>281633; 335158</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>390341; 687938</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>168143</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>194684</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>213582</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>201594</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>128654</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>154854</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>178924</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>175796</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>296797</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>349537</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>392506</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>377390</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>152205; 183480</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>173712; 217007</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>191741; 234629</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>181637; 219300</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>111655; 152775</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>133716; 176716</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>153433; 202259</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>159526; 193453</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>268204; 327409</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>319144; 382257</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>361415; 426153</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>354963; 401141</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>741679</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>872220</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>902225</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>801470</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>578130</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>748218</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>742021</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>942962</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1319809</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1620438</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1644246</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1744432</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>704703; 777999</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>822352; 917084</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>858465; 945068</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>757945; 846187</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>535011; 619576</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>699546; 792414</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>695881; 792794</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>801281; 1350692</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1262052; 1379693</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1556186; 1691213</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1583199; 1710332</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1612998; 2158940</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>